--- a/data/trans_orig/CoPsoQ_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>24229</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16348</v>
+        <v>16526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32404</v>
+        <v>34330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.308402128698033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2080866280338942</v>
+        <v>0.2103467668916848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4124580643787844</v>
+        <v>0.4369722391184955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -764,19 +764,19 @@
         <v>22985</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15751</v>
+        <v>15713</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31878</v>
+        <v>31561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2617887118971093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1793995460383319</v>
+        <v>0.1789565795908577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3630699471846842</v>
+        <v>0.3594589349381047</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -785,19 +785,19 @@
         <v>47214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36106</v>
+        <v>36060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59166</v>
+        <v>59806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2838013400037321</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2170285132951444</v>
+        <v>0.2167541576716527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.355641576619915</v>
+        <v>0.3594917034636577</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>54335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46160</v>
+        <v>44234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62216</v>
+        <v>62038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6915978713019669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5875419356212156</v>
+        <v>0.5630277608815044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7919133719661058</v>
+        <v>0.7896532331083153</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -835,19 +835,19 @@
         <v>64816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55923</v>
+        <v>56240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72050</v>
+        <v>72088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7382112881028907</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6369300528153157</v>
+        <v>0.6405410650618952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8206004539616684</v>
+        <v>0.8210434204091422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -856,19 +856,19 @@
         <v>119150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>107198</v>
+        <v>106558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130258</v>
+        <v>130304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7161986599962679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.644358423380085</v>
+        <v>0.6405082965363422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7829714867048554</v>
+        <v>0.7832458423283472</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>94270</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76425</v>
+        <v>76819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112027</v>
+        <v>111868</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2486910618553944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.20161561122177</v>
+        <v>0.2026545184145181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2955351968697977</v>
+        <v>0.2951143022390698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -981,19 +981,19 @@
         <v>58754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45652</v>
+        <v>47024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74100</v>
+        <v>74640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2144815869410461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1666550370895331</v>
+        <v>0.1716624294939174</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2705043698754899</v>
+        <v>0.2724758557905698</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -1002,19 +1002,19 @@
         <v>153024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131780</v>
+        <v>131914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173920</v>
+        <v>177794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2343401656255222</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.201807465405586</v>
+        <v>0.202013414353261</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2663413106162058</v>
+        <v>0.272273887738405</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>284795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>267038</v>
+        <v>267197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>302640</v>
+        <v>302246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7513089381446056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.704464803130202</v>
+        <v>0.7048856977609302</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7983843887782298</v>
+        <v>0.7973454815854826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>200</v>
@@ -1052,19 +1052,19 @@
         <v>215179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199833</v>
+        <v>199293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228281</v>
+        <v>226909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7855184130589539</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.72949563012451</v>
+        <v>0.7275241442094302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8333449629104669</v>
+        <v>0.8283375705060825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>476</v>
@@ -1073,19 +1073,19 @@
         <v>499974</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>479078</v>
+        <v>475204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>521218</v>
+        <v>521084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7656598343744778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7336586893837942</v>
+        <v>0.727726112261595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.798192534594414</v>
+        <v>0.797986585646739</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>92761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75585</v>
+        <v>76396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111129</v>
+        <v>112361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2242363207907246</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1827148530962301</v>
+        <v>0.184675121601079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2686362807734692</v>
+        <v>0.2716159746886045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1198,19 +1198,19 @@
         <v>60345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47281</v>
+        <v>46770</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75406</v>
+        <v>76492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2180935507448821</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1708783866104347</v>
+        <v>0.1690314717896615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2725247555473789</v>
+        <v>0.2764504282434349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1219,19 +1219,19 @@
         <v>153107</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132025</v>
+        <v>130462</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176169</v>
+        <v>178869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.221774352935069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1912373627827878</v>
+        <v>0.1889736065489632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2551798522890916</v>
+        <v>0.2590906337565896</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>320916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302548</v>
+        <v>301316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>338092</v>
+        <v>337281</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7757636792092754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7313637192265308</v>
+        <v>0.7283840253113955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.81728514690377</v>
+        <v>0.815324878398921</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -1269,19 +1269,19 @@
         <v>216350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>201289</v>
+        <v>200203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>229414</v>
+        <v>229925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7819064492551179</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.727475244452621</v>
+        <v>0.7235495717565651</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8291216133895652</v>
+        <v>0.8309685282103384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>522</v>
@@ -1290,19 +1290,19 @@
         <v>537265</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>514203</v>
+        <v>511503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558347</v>
+        <v>559910</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.778225647064931</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7448201477109089</v>
+        <v>0.7409093662434103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8087626372172124</v>
+        <v>0.8110263934510368</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>68004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53457</v>
+        <v>53696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84569</v>
+        <v>85506</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1872081959959401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1471622845630877</v>
+        <v>0.1478201199457321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2328088747927335</v>
+        <v>0.2353889564721233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1415,19 +1415,19 @@
         <v>60631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47352</v>
+        <v>46682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75268</v>
+        <v>74392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2770310219582416</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2163558590453195</v>
+        <v>0.2132981488944053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3439084640011855</v>
+        <v>0.3399084289511944</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1436,19 +1436,19 @@
         <v>128636</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108405</v>
+        <v>108664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150160</v>
+        <v>149704</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2209792431136012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1862257256717632</v>
+        <v>0.1866699010406103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2579551203731522</v>
+        <v>0.2571721036293945</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>295251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>278686</v>
+        <v>277749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>309798</v>
+        <v>309559</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8127918040040599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7671911252072663</v>
+        <v>0.7646110435278762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8528377154369121</v>
+        <v>0.8521798800542678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -1486,19 +1486,19 @@
         <v>158229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143592</v>
+        <v>144468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>171508</v>
+        <v>172178</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7229689780417584</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6560915359988146</v>
+        <v>0.6600915710488056</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7836441409546806</v>
+        <v>0.7867018511055945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>397</v>
@@ -1507,19 +1507,19 @@
         <v>453480</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>431956</v>
+        <v>432412</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>473711</v>
+        <v>473452</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7790207568863988</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7420448796268477</v>
+        <v>0.7428278963706055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8137742743282367</v>
+        <v>0.8133300989593897</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>33308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23492</v>
+        <v>23299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44219</v>
+        <v>44866</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2145331418153856</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1513082808150016</v>
+        <v>0.1500661538057979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.284809395635507</v>
+        <v>0.2889720126251314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1632,19 +1632,19 @@
         <v>15409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9373</v>
+        <v>9168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22844</v>
+        <v>22915</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.224436849224162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1365168189794523</v>
+        <v>0.1335248137936336</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3327254536130224</v>
+        <v>0.3337547425680999</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -1653,19 +1653,19 @@
         <v>48718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36640</v>
+        <v>36428</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62114</v>
+        <v>61762</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2175698219158055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1636323265450919</v>
+        <v>0.1626855300131569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2773970786295402</v>
+        <v>0.2758263201256057</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>121951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111040</v>
+        <v>110393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131767</v>
+        <v>131960</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7854668581846144</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7151906043644931</v>
+        <v>0.7110279873748686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8486917191849984</v>
+        <v>0.8499338461942022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1703,19 +1703,19 @@
         <v>53249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45814</v>
+        <v>45743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59285</v>
+        <v>59490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7755631507758379</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6672745463869777</v>
+        <v>0.6662452574319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8634831810205477</v>
+        <v>0.8664751862063663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -1724,19 +1724,19 @@
         <v>175199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161803</v>
+        <v>162155</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>187277</v>
+        <v>187489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7824301780841945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7226029213704597</v>
+        <v>0.7241736798743943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8363676734549081</v>
+        <v>0.837314469986843</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>312573</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -1849,19 +1849,19 @@
         <v>218125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>488</v>
@@ -1870,19 +1870,19 @@
         <v>530698</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>1077247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1045573</v>
+        <v>1042475</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1108062</v>
+        <v>1110870</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7750980353042721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.752308381568574</v>
+        <v>0.7500791254028325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7972703159861566</v>
+        <v>0.7992904374916141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>653</v>
@@ -1920,19 +1920,19 @@
         <v>707822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>677413</v>
+        <v>680585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>733569</v>
+        <v>732686</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7644306805035411</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7315889708497993</v>
+        <v>0.7350145450237656</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7922365854261355</v>
+        <v>0.7912831684095859</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1671</v>
@@ -1941,19 +1941,19 @@
         <v>1785069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1742896</v>
+        <v>1738575</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1824824</v>
+        <v>1824010</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7708327519534548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7526214783397871</v>
+        <v>0.7507555673424448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7879999771615185</v>
+        <v>0.7876482299753822</v>
       </c>
     </row>
     <row r="21">
@@ -2286,19 +2286,19 @@
         <v>20977</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14273</v>
+        <v>13530</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30040</v>
+        <v>29654</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2651668990654791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.18041914999462</v>
+        <v>0.1710300192789179</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.379730061070705</v>
+        <v>0.3748457658266421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2307,19 +2307,19 @@
         <v>20462</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12932</v>
+        <v>13876</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28119</v>
+        <v>28968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2227622894915108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1407903452040316</v>
+        <v>0.1510681850447436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3061205861900081</v>
+        <v>0.3153631364353254</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2328,19 +2328,19 @@
         <v>41439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31280</v>
+        <v>31404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52329</v>
+        <v>54111</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2423839305012445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1829631080813869</v>
+        <v>0.1836892075817065</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.306083562903477</v>
+        <v>0.3165035794352682</v>
       </c>
     </row>
     <row r="5">
@@ -2357,19 +2357,19 @@
         <v>58132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49069</v>
+        <v>49455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64836</v>
+        <v>65579</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7348331009345209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6202699389292949</v>
+        <v>0.6251542341733578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8195808500053801</v>
+        <v>0.8289699807210821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -2378,19 +2378,19 @@
         <v>71393</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63736</v>
+        <v>62887</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78923</v>
+        <v>77979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7772377105084892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6938794138099922</v>
+        <v>0.6846368635646745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8592096547959683</v>
+        <v>0.8489318149552564</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>126</v>
@@ -2399,19 +2399,19 @@
         <v>129525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118635</v>
+        <v>116853</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>139684</v>
+        <v>139560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7576160694987555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.693916437096523</v>
+        <v>0.6834964205647319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8170368919186131</v>
+        <v>0.8163107924182934</v>
       </c>
     </row>
     <row r="6">
@@ -2503,19 +2503,19 @@
         <v>68334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53443</v>
+        <v>53711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84299</v>
+        <v>85122</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1985371500664463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1552752068117919</v>
+        <v>0.1560518359278229</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2449235052473068</v>
+        <v>0.2473138885851649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -2524,19 +2524,19 @@
         <v>58583</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46410</v>
+        <v>45911</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73738</v>
+        <v>73185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.214030024554596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1695536318435246</v>
+        <v>0.1677310546057106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.26939662241711</v>
+        <v>0.267373993026071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>124</v>
@@ -2545,19 +2545,19 @@
         <v>126917</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108261</v>
+        <v>108402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148100</v>
+        <v>149700</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2054001392698087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1752066238286176</v>
+        <v>0.1754359854669383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2396815145097018</v>
+        <v>0.2422719198628237</v>
       </c>
     </row>
     <row r="8">
@@ -2574,19 +2574,19 @@
         <v>275851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>259886</v>
+        <v>259063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290742</v>
+        <v>290474</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8014628499335538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7550764947526938</v>
+        <v>0.752686111414835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8447247931882083</v>
+        <v>0.8439481640721771</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>224</v>
@@ -2595,19 +2595,19 @@
         <v>215133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199978</v>
+        <v>200531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227306</v>
+        <v>227805</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.785969975445404</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7306033775828897</v>
+        <v>0.7326260069739291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8304463681564752</v>
+        <v>0.8322689453942895</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>488</v>
@@ -2616,19 +2616,19 @@
         <v>490985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>469802</v>
+        <v>468202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>509641</v>
+        <v>509500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7945998607301913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7603184854902975</v>
+        <v>0.7577280801371763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8247933761713824</v>
+        <v>0.8245640145330616</v>
       </c>
     </row>
     <row r="9">
@@ -2720,19 +2720,19 @@
         <v>102730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86625</v>
+        <v>86037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121912</v>
+        <v>121020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2235253403463595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1884833832461996</v>
+        <v>0.1872044243935952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2652634731827599</v>
+        <v>0.2633237649389261</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -2741,19 +2741,19 @@
         <v>74102</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61162</v>
+        <v>60299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91018</v>
+        <v>89918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2334543869438173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1926877764143815</v>
+        <v>0.1899705822444399</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2867495633141655</v>
+        <v>0.2832837230947349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -2762,19 +2762,19 @@
         <v>176831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155268</v>
+        <v>154709</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>204030</v>
+        <v>200086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2275814656444468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1998299306787984</v>
+        <v>0.1991104241436265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2625866698218315</v>
+        <v>0.2575102361600905</v>
       </c>
     </row>
     <row r="11">
@@ -2791,19 +2791,19 @@
         <v>356858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>337676</v>
+        <v>338568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>372963</v>
+        <v>373551</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7764746596536405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7347365268172402</v>
+        <v>0.7366762350610738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8115166167538005</v>
+        <v>0.8127955756064047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -2812,19 +2812,19 @@
         <v>243312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226396</v>
+        <v>227496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256252</v>
+        <v>257115</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7665456130561826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7132504366858345</v>
+        <v>0.7167162769052645</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8073122235856185</v>
+        <v>0.81002941775556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -2833,19 +2833,19 @@
         <v>600170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>572971</v>
+        <v>576915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621733</v>
+        <v>622292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7724185343555532</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7374133301781686</v>
+        <v>0.7424897638399095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8001700693212016</v>
+        <v>0.8008895758563734</v>
       </c>
     </row>
     <row r="12">
@@ -2937,19 +2937,19 @@
         <v>86817</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71007</v>
+        <v>69981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105718</v>
+        <v>103260</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2360894085754314</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1930972989463899</v>
+        <v>0.1903056896273007</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2874892471609278</v>
+        <v>0.2808064487834773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -2958,19 +2958,19 @@
         <v>54933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41347</v>
+        <v>42167</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67802</v>
+        <v>69493</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2259540590350172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1700688775838181</v>
+        <v>0.1734405353390156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2788857133837819</v>
+        <v>0.2858388061598597</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -2979,19 +2979,19 @@
         <v>141750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122621</v>
+        <v>119276</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165874</v>
+        <v>162370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2320555187977744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2007401125258636</v>
+        <v>0.1952643119323381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2715477452769646</v>
+        <v>0.2658119369309567</v>
       </c>
     </row>
     <row r="14">
@@ -3008,19 +3008,19 @@
         <v>280911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>262010</v>
+        <v>264468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296721</v>
+        <v>297747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7639105914245685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7125107528390723</v>
+        <v>0.719193551216523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8069027010536102</v>
+        <v>0.8096943103726993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>173</v>
@@ -3029,19 +3029,19 @@
         <v>188185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>175316</v>
+        <v>173625</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>201771</v>
+        <v>200951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7740459409649828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.721114286616218</v>
+        <v>0.7141611938401403</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8299311224161818</v>
+        <v>0.8265594646609845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>425</v>
@@ -3050,19 +3050,19 @@
         <v>469096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>444972</v>
+        <v>448476</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>488225</v>
+        <v>491570</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7679444812022256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7284522547230354</v>
+        <v>0.7341880630690439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7992598874741365</v>
+        <v>0.8047356880676622</v>
       </c>
     </row>
     <row r="15">
@@ -3154,19 +3154,19 @@
         <v>38894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28257</v>
+        <v>28720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53128</v>
+        <v>52651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2346885651433266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1705014688950159</v>
+        <v>0.1732993448312674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3205778020414506</v>
+        <v>0.3177010099836369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3175,19 +3175,19 @@
         <v>29496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20377</v>
+        <v>20668</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39896</v>
+        <v>40968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2785826736776179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1924551886376975</v>
+        <v>0.1951996339144811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3768068606335915</v>
+        <v>0.3869312541571897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -3196,19 +3196,19 @@
         <v>68390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53338</v>
+        <v>54871</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>84091</v>
+        <v>84691</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2517996384166448</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1963808262925213</v>
+        <v>0.202026276516004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3096093260728468</v>
+        <v>0.311818291652028</v>
       </c>
     </row>
     <row r="17">
@@ -3225,19 +3225,19 @@
         <v>126832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112598</v>
+        <v>113075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137469</v>
+        <v>137006</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7653114348566734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6794221979585503</v>
+        <v>0.6822989900163633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8294985311049841</v>
+        <v>0.8267006551687329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -3246,19 +3246,19 @@
         <v>76383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65983</v>
+        <v>64911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85502</v>
+        <v>85211</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7214173263223821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6231931393664085</v>
+        <v>0.6130687458428103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8075448113623026</v>
+        <v>0.8048003660855189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>178</v>
@@ -3267,19 +3267,19 @@
         <v>203215</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187514</v>
+        <v>186914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218267</v>
+        <v>216734</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7482003615833552</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6903906739271531</v>
+        <v>0.6881817083479719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8036191737074785</v>
+        <v>0.7979737234839961</v>
       </c>
     </row>
     <row r="18">
@@ -3371,19 +3371,19 @@
         <v>317751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>233</v>
@@ -3392,19 +3392,19 @@
         <v>237576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>531</v>
@@ -3413,19 +3413,19 @@
         <v>555327</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2268199418019368</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
     </row>
     <row r="20">
@@ -3442,19 +3442,19 @@
         <v>1098586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1063692</v>
+        <v>1064158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1129183</v>
+        <v>1127912</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7756529168610102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.751016205058498</v>
+        <v>0.7513451607082292</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7972560062364052</v>
+        <v>0.7963582336831014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>775</v>
@@ -3463,19 +3463,19 @@
         <v>794406</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>764711</v>
+        <v>765328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>820356</v>
+        <v>820630</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7697861987449395</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7410122285769259</v>
+        <v>0.7416095145308691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.794932947072426</v>
+        <v>0.7951982499976175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1794</v>
@@ -3484,19 +3484,19 @@
         <v>1892991</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1849389</v>
+        <v>1848772</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1931484</v>
+        <v>1934440</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7731800581980632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7553711378134933</v>
+        <v>0.7551192265538728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7889023698334997</v>
+        <v>0.790109982119777</v>
       </c>
     </row>
     <row r="21">
@@ -3829,19 +3829,19 @@
         <v>10613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3156</v>
+        <v>3739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20495</v>
+        <v>20808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3525303420745802</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1048210026618723</v>
+        <v>0.1242073714411038</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6807737272476441</v>
+        <v>0.6911844368680508</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3850,19 +3850,19 @@
         <v>7041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2339</v>
+        <v>2407</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13597</v>
+        <v>13379</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2662882243274897</v>
+        <v>0.2662882243274896</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08845918145262362</v>
+        <v>0.09101953479700367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5142327346253527</v>
+        <v>0.5060008304487108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -3871,19 +3871,19 @@
         <v>17654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8894</v>
+        <v>8092</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30531</v>
+        <v>29534</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3122033628931737</v>
+        <v>0.3122033628931736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1572869921513938</v>
+        <v>0.143100372038635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5399362548328341</v>
+        <v>0.522301627082149</v>
       </c>
     </row>
     <row r="5">
@@ -3900,19 +3900,19 @@
         <v>19492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9610</v>
+        <v>9297</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26949</v>
+        <v>26366</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6474696579254198</v>
+        <v>0.6474696579254199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3192262727523556</v>
+        <v>0.3088155631319491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8951789973381278</v>
+        <v>0.8757926285588961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3921,19 +3921,19 @@
         <v>19400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12844</v>
+        <v>13062</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24102</v>
+        <v>24034</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7337117756725102</v>
+        <v>0.7337117756725103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4857672653746463</v>
+        <v>0.4939991695512885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9115408185473759</v>
+        <v>0.9089804652029962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -3942,19 +3942,19 @@
         <v>38891</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26014</v>
+        <v>27011</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47651</v>
+        <v>48453</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6877966371068265</v>
+        <v>0.6877966371068264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4600637451671661</v>
+        <v>0.4776983729178512</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8427130078486068</v>
+        <v>0.8568996279613653</v>
       </c>
     </row>
     <row r="6">
@@ -4046,19 +4046,19 @@
         <v>28711</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18157</v>
+        <v>17372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43870</v>
+        <v>42081</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.242202216670992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1531739064810938</v>
+        <v>0.1465514412006028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3700838276733587</v>
+        <v>0.3549892148028297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -4067,19 +4067,19 @@
         <v>28227</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19309</v>
+        <v>20055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38996</v>
+        <v>38945</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3075816624878086</v>
+        <v>0.3075816624878085</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2103984047161144</v>
+        <v>0.2185304471108332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4249177896522069</v>
+        <v>0.4243686135472371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -4088,19 +4088,19 @@
         <v>56938</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42151</v>
+        <v>42875</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73485</v>
+        <v>74125</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2707311303472264</v>
+        <v>0.2707311303472263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.200421195969591</v>
+        <v>0.2038637896165256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3494098509958791</v>
+        <v>0.3524509290736098</v>
       </c>
     </row>
     <row r="8">
@@ -4117,19 +4117,19 @@
         <v>89830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74671</v>
+        <v>76460</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100384</v>
+        <v>101169</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7577977833290079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6299161723266408</v>
+        <v>0.6450107851971704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8468260935189061</v>
+        <v>0.8534485587993973</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -4138,19 +4138,19 @@
         <v>63545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52776</v>
+        <v>52827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72463</v>
+        <v>71717</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6924183375121914</v>
+        <v>0.6924183375121912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5750822103477928</v>
+        <v>0.5756313864527625</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7896015952838854</v>
+        <v>0.7814695528891668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>115</v>
@@ -4159,19 +4159,19 @@
         <v>153374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136827</v>
+        <v>136187</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>168161</v>
+        <v>167437</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7292688696527738</v>
+        <v>0.7292688696527736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.650590149004121</v>
+        <v>0.6475490709263901</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7995788040304088</v>
+        <v>0.7961362103834744</v>
       </c>
     </row>
     <row r="9">
@@ -4263,19 +4263,19 @@
         <v>37442</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27056</v>
+        <v>26328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48257</v>
+        <v>48042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3173209191512683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2293043254634108</v>
+        <v>0.2231302526924256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4089848784106327</v>
+        <v>0.4071590600637428</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -4284,19 +4284,19 @@
         <v>28011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20708</v>
+        <v>20843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35928</v>
+        <v>37281</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2693941182777422</v>
+        <v>0.2693941182777423</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1991579179130173</v>
+        <v>0.2004568245261642</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3455327027871377</v>
+        <v>0.3585468352928303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -4305,19 +4305,19 @@
         <v>65453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52574</v>
+        <v>52002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78918</v>
+        <v>78761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2948704320147511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2368465074537925</v>
+        <v>0.2342710268016382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3555283927951819</v>
+        <v>0.354820395189994</v>
       </c>
     </row>
     <row r="11">
@@ -4334,19 +4334,19 @@
         <v>80551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69736</v>
+        <v>69951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90937</v>
+        <v>91665</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6826790808487317</v>
+        <v>0.6826790808487315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5910151215893672</v>
+        <v>0.5928409399362574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7706956745365892</v>
+        <v>0.7768697473075746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -4355,19 +4355,19 @@
         <v>75968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68051</v>
+        <v>66698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83271</v>
+        <v>83136</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7306058817222577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6544672972128623</v>
+        <v>0.6414531647071696</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8008420820869829</v>
+        <v>0.7995431754738359</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>172</v>
@@ -4376,19 +4376,19 @@
         <v>156520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>143055</v>
+        <v>143212</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169399</v>
+        <v>169971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7051295679852488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6444716072048181</v>
+        <v>0.6451796048100059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7631534925462073</v>
+        <v>0.7657289731983618</v>
       </c>
     </row>
     <row r="12">
@@ -4480,19 +4480,19 @@
         <v>59857</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47879</v>
+        <v>48826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72165</v>
+        <v>71988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4363615673222745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3490453160626351</v>
+        <v>0.3559456565629588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5260940066801448</v>
+        <v>0.524802487102764</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -4501,19 +4501,19 @@
         <v>42409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33815</v>
+        <v>35129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51076</v>
+        <v>51640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3512024970939187</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.280030748634776</v>
+        <v>0.2909180794923764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4229779534423276</v>
+        <v>0.4276510068507069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -4522,19 +4522,19 @@
         <v>102265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87008</v>
+        <v>87683</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117752</v>
+        <v>117035</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3964925366136315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3373398556224206</v>
+        <v>0.3399565976947962</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4565369371078673</v>
+        <v>0.453757779296496</v>
       </c>
     </row>
     <row r="14">
@@ -4551,19 +4551,19 @@
         <v>77315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65007</v>
+        <v>65184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89293</v>
+        <v>88346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5636384326777255</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4739059933198554</v>
+        <v>0.4751975128972359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6509546839373648</v>
+        <v>0.6440543434370415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -4572,19 +4572,19 @@
         <v>78344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69677</v>
+        <v>69113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86938</v>
+        <v>85624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6487975029060812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5770220465576724</v>
+        <v>0.5723489931492934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7199692513652248</v>
+        <v>0.7090819205076239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>197</v>
@@ -4593,19 +4593,19 @@
         <v>155659</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140172</v>
+        <v>140889</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170916</v>
+        <v>170241</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6035074633863685</v>
+        <v>0.6035074633863684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5434630628921326</v>
+        <v>0.5462422207035041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6626601443775791</v>
+        <v>0.6600434023052038</v>
       </c>
     </row>
     <row r="15">
@@ -4697,19 +4697,19 @@
         <v>17811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11413</v>
+        <v>11007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25799</v>
+        <v>25037</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2596386501620909</v>
+        <v>0.259638650162091</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1663721871293163</v>
+        <v>0.1604542915577209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3760968262649309</v>
+        <v>0.3649857055213374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -4718,19 +4718,19 @@
         <v>9123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5698</v>
+        <v>5296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14057</v>
+        <v>13676</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.222247257240349</v>
+        <v>0.2222472572403489</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1388181021796842</v>
+        <v>0.1290111417762546</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3424454097539822</v>
+        <v>0.3331637080123757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -4739,19 +4739,19 @@
         <v>26933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19537</v>
+        <v>19038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35666</v>
+        <v>36156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2456404700048458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1781811522899863</v>
+        <v>0.1736317985454011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3252832310061994</v>
+        <v>0.3297516750599059</v>
       </c>
     </row>
     <row r="17">
@@ -4768,19 +4768,19 @@
         <v>50787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42799</v>
+        <v>43561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57185</v>
+        <v>57591</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.740361349837909</v>
+        <v>0.7403613498379092</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6239031737350691</v>
+        <v>0.6350142944786623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8336278128706837</v>
+        <v>0.8395457084422792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -4789,19 +4789,19 @@
         <v>31925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26991</v>
+        <v>27372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35350</v>
+        <v>35752</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7777527427596512</v>
+        <v>0.7777527427596509</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6575545902460179</v>
+        <v>0.6668362919876245</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8611818978203157</v>
+        <v>0.8709888582237454</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>106</v>
@@ -4810,19 +4810,19 @@
         <v>82713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73980</v>
+        <v>73490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90109</v>
+        <v>90608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7543595299951542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6747167689938005</v>
+        <v>0.6702483249400942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8218188477100138</v>
+        <v>0.826368201454599</v>
       </c>
     </row>
     <row r="18">
@@ -4914,19 +4914,19 @@
         <v>154432</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3269047081121942</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -4935,19 +4935,19 @@
         <v>114811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>269</v>
@@ -4956,19 +4956,19 @@
         <v>269243</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3143896371123066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="20">
@@ -4985,19 +4985,19 @@
         <v>317976</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291280</v>
+        <v>293775</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>340715</v>
+        <v>341855</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6730952918878057</v>
+        <v>0.6730952918878058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6165859590107186</v>
+        <v>0.6218674863862972</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7212295826421897</v>
+        <v>0.7236437504591205</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>350</v>
@@ -5006,19 +5006,19 @@
         <v>269181</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251745</v>
+        <v>252528</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>285392</v>
+        <v>285690</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7010070722802016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6555990202845194</v>
+        <v>0.6576380462984657</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7432234532253618</v>
+        <v>0.7439991315377318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>612</v>
@@ -5027,19 +5027,19 @@
         <v>587157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>557075</v>
+        <v>557955</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>615787</v>
+        <v>615244</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6856103628876933</v>
+        <v>0.6856103628876936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.650485067104585</v>
+        <v>0.6515124364091152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7190412681882793</v>
+        <v>0.7184068455568888</v>
       </c>
     </row>
     <row r="21">
